--- a/회의록 및 진행상황/Mushroom 프로젝트 플래너.xlsx
+++ b/회의록 및 진행상황/Mushroom 프로젝트 플래너.xlsx
@@ -979,6 +979,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,12 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1446,7 +1446,7 @@
   <dimension ref="B1:BP30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="30" customHeight="1"/>
@@ -1471,13 +1471,13 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1525,19 +1525,19 @@
       <c r="C3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="15" t="s">
@@ -1566,11 +1566,11 @@
     <row r="4" spans="2:68" ht="15.75" customHeight="1">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="2">
         <v>1</v>
       </c>
@@ -2430,9 +2430,11 @@
       <c r="F13" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
       <c r="H13" s="21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -2923,7 +2925,9 @@
       <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19">
+        <v>5</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="21">
         <v>0</v>

--- a/회의록 및 진행상황/Mushroom 프로젝트 플래너.xlsx
+++ b/회의록 및 진행상황/Mushroom 프로젝트 플래너.xlsx
@@ -1445,8 +1445,8 @@
   </sheetPr>
   <dimension ref="B1:BP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="30" customHeight="1"/>
@@ -1482,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="25" t="s">
